--- a/output/teste/df_split2.xlsx
+++ b/output/teste/df_split2.xlsx
@@ -401,7 +401,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -441,13 +441,13 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="1">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C2">
-        <v>122.9626083453766</v>
+        <v>95.10188558031456</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -459,193 +459,368 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>184.4439125180649</v>
+        <v>142.6528283704718</v>
       </c>
       <c r="H2">
-        <v>0.4</v>
+        <v>0.34</v>
       </c>
       <c r="I2">
-        <v>0.44</v>
+        <v>0.5</v>
       </c>
       <c r="J2">
-        <v>0.19</v>
+        <v>0.11</v>
       </c>
       <c r="K2">
-        <v>0.35</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="1">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B3">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C3">
-        <v>217.7285845022828</v>
+        <v>100.6937895111742</v>
       </c>
       <c r="D3">
-        <v>0.00555556</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>0.00555556</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0.01111112</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>326.5928767534242</v>
+        <v>151.0406842667613</v>
       </c>
       <c r="H3">
-        <v>0.38</v>
+        <v>0.39</v>
       </c>
       <c r="I3">
-        <v>0.41</v>
+        <v>0.45</v>
       </c>
       <c r="J3">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="K3">
-        <v>0.33</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="1">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C4">
-        <v>340.6121553362682</v>
+        <v>122.9626083453766</v>
       </c>
       <c r="D4">
-        <v>0.02222224</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>0.02222224</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0.04444448</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>510.9182330044023</v>
+        <v>184.4439125180649</v>
       </c>
       <c r="H4">
-        <v>0.38</v>
+        <v>0.4</v>
       </c>
       <c r="I4">
-        <v>0.47</v>
+        <v>0.44</v>
       </c>
       <c r="J4">
-        <v>0.18</v>
+        <v>0.19</v>
       </c>
       <c r="K4">
-        <v>0.39</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="1">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B5">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C5">
-        <v>428.3635523572899</v>
+        <v>217.7285845022828</v>
       </c>
       <c r="D5">
-        <v>0.08611118000000001</v>
+        <v>0.00555556</v>
       </c>
       <c r="E5">
-        <v>0.08611118000000001</v>
+        <v>0.00555556</v>
       </c>
       <c r="F5">
-        <v>0.17222236</v>
+        <v>0.01111112</v>
       </c>
       <c r="G5">
-        <v>642.5453285359349</v>
+        <v>326.5928767534242</v>
       </c>
       <c r="H5">
-        <v>0.4</v>
+        <v>0.38</v>
       </c>
       <c r="I5">
-        <v>0.45</v>
+        <v>0.41</v>
       </c>
       <c r="J5">
-        <v>0.12</v>
+        <v>0.17</v>
       </c>
       <c r="K5">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="1">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C6">
-        <v>498.7069374946091</v>
+        <v>340.6121553362682</v>
       </c>
       <c r="D6">
-        <v>0.10000008</v>
+        <v>0.02222224</v>
       </c>
       <c r="E6">
-        <v>0.10000008</v>
+        <v>0.02222224</v>
       </c>
       <c r="F6">
-        <v>0.20000016</v>
+        <v>0.04444448</v>
       </c>
       <c r="G6">
-        <v>748.0604062419137</v>
+        <v>510.9182330044023</v>
       </c>
       <c r="H6">
-        <v>0.34</v>
+        <v>0.38</v>
       </c>
       <c r="I6">
-        <v>0.42</v>
+        <v>0.47</v>
       </c>
       <c r="J6">
-        <v>0.14</v>
+        <v>0.18</v>
       </c>
       <c r="K6">
-        <v>0.3</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="1">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C7">
-        <v>508.3495138842192</v>
+        <v>428.3635523572899</v>
       </c>
       <c r="D7">
-        <v>0.11944454</v>
+        <v>0.08611118000000001</v>
       </c>
       <c r="E7">
-        <v>0.11944454</v>
+        <v>0.08611118000000001</v>
       </c>
       <c r="F7">
-        <v>0.23888908</v>
+        <v>0.17222236</v>
       </c>
       <c r="G7">
-        <v>762.5242708263288</v>
+        <v>642.5453285359349</v>
       </c>
       <c r="H7">
-        <v>0.35</v>
+        <v>0.4</v>
       </c>
       <c r="I7">
-        <v>0.48</v>
+        <v>0.45</v>
       </c>
       <c r="J7">
         <v>0.12</v>
       </c>
       <c r="K7">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="1">
+        <v>11</v>
+      </c>
+      <c r="B8">
+        <v>12</v>
+      </c>
+      <c r="C8">
+        <v>498.7069374946091</v>
+      </c>
+      <c r="D8">
+        <v>0.10000008</v>
+      </c>
+      <c r="E8">
+        <v>0.10000008</v>
+      </c>
+      <c r="F8">
+        <v>0.20000016</v>
+      </c>
+      <c r="G8">
+        <v>748.0604062419137</v>
+      </c>
+      <c r="H8">
+        <v>0.34</v>
+      </c>
+      <c r="I8">
+        <v>0.42</v>
+      </c>
+      <c r="J8">
+        <v>0.14</v>
+      </c>
+      <c r="K8">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="1">
+        <v>12</v>
+      </c>
+      <c r="B9">
+        <v>13</v>
+      </c>
+      <c r="C9">
+        <v>508.3495138842192</v>
+      </c>
+      <c r="D9">
+        <v>0.11944454</v>
+      </c>
+      <c r="E9">
+        <v>0.11944454</v>
+      </c>
+      <c r="F9">
+        <v>0.23888908</v>
+      </c>
+      <c r="G9">
+        <v>762.5242708263288</v>
+      </c>
+      <c r="H9">
+        <v>0.35</v>
+      </c>
+      <c r="I9">
+        <v>0.48</v>
+      </c>
+      <c r="J9">
+        <v>0.12</v>
+      </c>
+      <c r="K9">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="1">
+        <v>13</v>
+      </c>
+      <c r="B10">
+        <v>14</v>
+      </c>
+      <c r="C10">
+        <v>425.5577207029365</v>
+      </c>
+      <c r="D10">
+        <v>0.10277786</v>
+      </c>
+      <c r="E10">
+        <v>0.10277786</v>
+      </c>
+      <c r="F10">
+        <v>0.20555572</v>
+      </c>
+      <c r="G10">
+        <v>638.3365810544047</v>
+      </c>
+      <c r="H10">
+        <v>0.35</v>
+      </c>
+      <c r="I10">
+        <v>0.45</v>
+      </c>
+      <c r="J10">
+        <v>0.14</v>
+      </c>
+      <c r="K10">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="1">
+        <v>14</v>
+      </c>
+      <c r="B11">
+        <v>15</v>
+      </c>
+      <c r="C11">
+        <v>334.7633794933903</v>
+      </c>
+      <c r="D11">
+        <v>0.0416667</v>
+      </c>
+      <c r="E11">
+        <v>0.0416667</v>
+      </c>
+      <c r="F11">
+        <v>0.0833334</v>
+      </c>
+      <c r="G11">
+        <v>502.1450692400854</v>
+      </c>
+      <c r="H11">
+        <v>0.3</v>
+      </c>
+      <c r="I11">
+        <v>0.4</v>
+      </c>
+      <c r="J11">
+        <v>0.11</v>
+      </c>
+      <c r="K11">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="1">
+        <v>15</v>
+      </c>
+      <c r="B12">
+        <v>16</v>
+      </c>
+      <c r="C12">
+        <v>286.7480913238156</v>
+      </c>
+      <c r="D12">
+        <v>0.0138889</v>
+      </c>
+      <c r="E12">
+        <v>0.0138889</v>
+      </c>
+      <c r="F12">
+        <v>0.0277778</v>
+      </c>
+      <c r="G12">
+        <v>430.1221369857234</v>
+      </c>
+      <c r="H12">
+        <v>0.33</v>
+      </c>
+      <c r="I12">
+        <v>0.49</v>
+      </c>
+      <c r="J12">
+        <v>0.12</v>
+      </c>
+      <c r="K12">
         <v>0.36</v>
       </c>
     </row>

--- a/output/teste/df_split2.xlsx
+++ b/output/teste/df_split2.xlsx
@@ -401,7 +401,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -441,387 +441,562 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="1">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B2">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C2">
-        <v>95.10188558031456</v>
+        <v>340.6121553362682</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>0.02222224</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.02222224</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>0.04444448</v>
       </c>
       <c r="G2">
-        <v>142.6528283704718</v>
+        <v>510.9182330044023</v>
       </c>
       <c r="H2">
-        <v>0.34</v>
+        <v>0.38</v>
       </c>
       <c r="I2">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="J2">
-        <v>0.11</v>
+        <v>0.18</v>
       </c>
       <c r="K2">
-        <v>0.34</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="1">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B3">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C3">
-        <v>100.6937895111742</v>
+        <v>428.3635523572899</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>0.08611118000000001</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>0.08611118000000001</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>0.17222236</v>
       </c>
       <c r="G3">
-        <v>151.0406842667613</v>
+        <v>642.5453285359349</v>
       </c>
       <c r="H3">
-        <v>0.39</v>
+        <v>0.4</v>
       </c>
       <c r="I3">
         <v>0.45</v>
       </c>
       <c r="J3">
-        <v>0.14</v>
+        <v>0.12</v>
       </c>
       <c r="K3">
-        <v>0.34</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="1">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B4">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C4">
-        <v>122.9626083453766</v>
+        <v>498.7069374946091</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>0.10000008</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>0.10000008</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>0.20000016</v>
       </c>
       <c r="G4">
-        <v>184.4439125180649</v>
+        <v>748.0604062419137</v>
       </c>
       <c r="H4">
-        <v>0.4</v>
+        <v>0.34</v>
       </c>
       <c r="I4">
-        <v>0.44</v>
+        <v>0.42</v>
       </c>
       <c r="J4">
-        <v>0.19</v>
+        <v>0.14</v>
       </c>
       <c r="K4">
-        <v>0.35</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="1">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B5">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C5">
-        <v>217.7285845022828</v>
+        <v>508.3495138842192</v>
       </c>
       <c r="D5">
-        <v>0.00555556</v>
+        <v>0.11944454</v>
       </c>
       <c r="E5">
-        <v>0.00555556</v>
+        <v>0.11944454</v>
       </c>
       <c r="F5">
-        <v>0.01111112</v>
+        <v>0.23888908</v>
       </c>
       <c r="G5">
-        <v>326.5928767534242</v>
+        <v>762.5242708263288</v>
       </c>
       <c r="H5">
-        <v>0.38</v>
+        <v>0.35</v>
       </c>
       <c r="I5">
-        <v>0.41</v>
+        <v>0.48</v>
       </c>
       <c r="J5">
-        <v>0.17</v>
+        <v>0.12</v>
       </c>
       <c r="K5">
-        <v>0.33</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="1">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B6">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C6">
-        <v>340.6121553362682</v>
+        <v>425.5577207029365</v>
       </c>
       <c r="D6">
-        <v>0.02222224</v>
+        <v>0.10277786</v>
       </c>
       <c r="E6">
-        <v>0.02222224</v>
+        <v>0.10277786</v>
       </c>
       <c r="F6">
-        <v>0.04444448</v>
+        <v>0.20555572</v>
       </c>
       <c r="G6">
-        <v>510.9182330044023</v>
+        <v>638.3365810544047</v>
       </c>
       <c r="H6">
+        <v>0.35</v>
+      </c>
+      <c r="I6">
+        <v>0.45</v>
+      </c>
+      <c r="J6">
+        <v>0.14</v>
+      </c>
+      <c r="K6">
         <v>0.38</v>
-      </c>
-      <c r="I6">
-        <v>0.47</v>
-      </c>
-      <c r="J6">
-        <v>0.18</v>
-      </c>
-      <c r="K6">
-        <v>0.39</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="1">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B7">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C7">
-        <v>428.3635523572899</v>
+        <v>334.7633794933903</v>
       </c>
       <c r="D7">
-        <v>0.08611118000000001</v>
+        <v>0.0416667</v>
       </c>
       <c r="E7">
-        <v>0.08611118000000001</v>
+        <v>0.0416667</v>
       </c>
       <c r="F7">
-        <v>0.17222236</v>
+        <v>0.0833334</v>
       </c>
       <c r="G7">
-        <v>642.5453285359349</v>
+        <v>502.1450692400854</v>
       </c>
       <c r="H7">
+        <v>0.3</v>
+      </c>
+      <c r="I7">
         <v>0.4</v>
       </c>
-      <c r="I7">
-        <v>0.45</v>
-      </c>
       <c r="J7">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="K7">
-        <v>0.4</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="1">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B8">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C8">
-        <v>498.7069374946091</v>
+        <v>286.7480913238156</v>
       </c>
       <c r="D8">
-        <v>0.10000008</v>
+        <v>0.0138889</v>
       </c>
       <c r="E8">
-        <v>0.10000008</v>
+        <v>0.0138889</v>
       </c>
       <c r="F8">
-        <v>0.20000016</v>
+        <v>0.0277778</v>
       </c>
       <c r="G8">
-        <v>748.0604062419137</v>
+        <v>430.1221369857234</v>
       </c>
       <c r="H8">
-        <v>0.34</v>
+        <v>0.33</v>
       </c>
       <c r="I8">
-        <v>0.42</v>
+        <v>0.49</v>
       </c>
       <c r="J8">
-        <v>0.14</v>
+        <v>0.12</v>
       </c>
       <c r="K8">
-        <v>0.3</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="1">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B9">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C9">
-        <v>508.3495138842192</v>
+        <v>262.4045378156197</v>
       </c>
       <c r="D9">
-        <v>0.11944454</v>
+        <v>0</v>
       </c>
       <c r="E9">
-        <v>0.11944454</v>
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>0.23888908</v>
+        <v>0</v>
       </c>
       <c r="G9">
-        <v>762.5242708263288</v>
+        <v>393.6068067234295</v>
       </c>
       <c r="H9">
-        <v>0.35</v>
+        <v>0.39</v>
       </c>
       <c r="I9">
-        <v>0.48</v>
+        <v>0.46</v>
       </c>
       <c r="J9">
-        <v>0.12</v>
+        <v>0.14</v>
       </c>
       <c r="K9">
-        <v>0.36</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="1">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B10">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C10">
-        <v>425.5577207029365</v>
+        <v>309.1354664251031</v>
       </c>
       <c r="D10">
-        <v>0.10277786</v>
+        <v>0</v>
       </c>
       <c r="E10">
-        <v>0.10277786</v>
+        <v>0</v>
       </c>
       <c r="F10">
-        <v>0.20555572</v>
+        <v>0</v>
       </c>
       <c r="G10">
-        <v>638.3365810544047</v>
+        <v>463.7031996376547</v>
       </c>
       <c r="H10">
-        <v>0.35</v>
+        <v>0.37</v>
       </c>
       <c r="I10">
-        <v>0.45</v>
+        <v>0.48</v>
       </c>
       <c r="J10">
-        <v>0.14</v>
+        <v>0.19</v>
       </c>
       <c r="K10">
-        <v>0.38</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="1">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B11">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C11">
-        <v>334.7633794933903</v>
+        <v>384.636049180636</v>
       </c>
       <c r="D11">
-        <v>0.0416667</v>
+        <v>0</v>
       </c>
       <c r="E11">
-        <v>0.0416667</v>
+        <v>0</v>
       </c>
       <c r="F11">
-        <v>0.0833334</v>
+        <v>0</v>
       </c>
       <c r="G11">
-        <v>502.1450692400854</v>
+        <v>576.954073770954</v>
       </c>
       <c r="H11">
-        <v>0.3</v>
+        <v>0.35</v>
       </c>
       <c r="I11">
         <v>0.4</v>
       </c>
       <c r="J11">
-        <v>0.11</v>
+        <v>0.18</v>
       </c>
       <c r="K11">
-        <v>0.37</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="1">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B12">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C12">
-        <v>286.7480913238156</v>
+        <v>433.5207499755035</v>
       </c>
       <c r="D12">
-        <v>0.0138889</v>
+        <v>0</v>
       </c>
       <c r="E12">
-        <v>0.0138889</v>
+        <v>0</v>
       </c>
       <c r="F12">
-        <v>0.0277778</v>
+        <v>0</v>
       </c>
       <c r="G12">
-        <v>430.1221369857234</v>
+        <v>650.2811249632553</v>
       </c>
       <c r="H12">
+        <v>0.38</v>
+      </c>
+      <c r="I12">
+        <v>0.41</v>
+      </c>
+      <c r="J12">
+        <v>0.17</v>
+      </c>
+      <c r="K12">
         <v>0.33</v>
       </c>
-      <c r="I12">
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="1">
+        <v>20</v>
+      </c>
+      <c r="B13">
+        <v>21</v>
+      </c>
+      <c r="C13">
+        <v>393.8044005019047</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>590.7066007528571</v>
+      </c>
+      <c r="H13">
+        <v>0.35</v>
+      </c>
+      <c r="I13">
         <v>0.49</v>
       </c>
-      <c r="J12">
-        <v>0.12</v>
-      </c>
-      <c r="K12">
-        <v>0.36</v>
+      <c r="J13">
+        <v>0.16</v>
+      </c>
+      <c r="K13">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="1">
+        <v>21</v>
+      </c>
+      <c r="B14">
+        <v>22</v>
+      </c>
+      <c r="C14">
+        <v>333.3011855326704</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>499.9517782990056</v>
+      </c>
+      <c r="H14">
+        <v>0.3</v>
+      </c>
+      <c r="I14">
+        <v>0.4</v>
+      </c>
+      <c r="J14">
+        <v>0.19</v>
+      </c>
+      <c r="K14">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="1">
+        <v>22</v>
+      </c>
+      <c r="B15">
+        <v>23</v>
+      </c>
+      <c r="C15">
+        <v>282.2034344188766</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>423.3051516283149</v>
+      </c>
+      <c r="H15">
+        <v>0.39</v>
+      </c>
+      <c r="I15">
+        <v>0.41</v>
+      </c>
+      <c r="J15">
+        <v>0.14</v>
+      </c>
+      <c r="K15">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="1">
+        <v>23</v>
+      </c>
+      <c r="B16">
+        <v>24</v>
+      </c>
+      <c r="C16">
+        <v>208.1255268683671</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>312.1882903025506</v>
+      </c>
+      <c r="H16">
+        <v>0.32</v>
+      </c>
+      <c r="I16">
+        <v>0.45</v>
+      </c>
+      <c r="J16">
+        <v>0.18</v>
+      </c>
+      <c r="K16">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="1">
+        <v>24</v>
+      </c>
+      <c r="B17">
+        <v>25</v>
+      </c>
+      <c r="C17">
+        <v>165.1488800499209</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>247.7233200748814</v>
+      </c>
+      <c r="H17">
+        <v>0.4</v>
+      </c>
+      <c r="I17">
+        <v>0.48</v>
+      </c>
+      <c r="J17">
+        <v>0.2</v>
+      </c>
+      <c r="K17">
+        <v>0.4</v>
       </c>
     </row>
   </sheetData>

--- a/output/teste/df_split2.xlsx
+++ b/output/teste/df_split2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>HOURS</t>
   </si>
@@ -71,6 +71,9 @@
   </si>
   <si>
     <t>param_E_pvt2_solar</t>
+  </si>
+  <si>
+    <t>param_E_pv3_solar</t>
   </si>
   <si>
     <t>param_P_to_charging_station1</t>
@@ -434,13 +437,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:V17"/>
+  <dimension ref="A1:W17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:22">
+    <row r="1" spans="1:23">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -504,8 +507,11 @@
       <c r="V1" s="1" t="s">
         <v>20</v>
       </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="2" spans="1:22">
+    <row r="2" spans="1:23">
       <c r="A2" s="1">
         <v>9</v>
       </c>
@@ -567,13 +573,16 @@
         <v>0.12</v>
       </c>
       <c r="U2">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="V2">
         <v>0</v>
       </c>
+      <c r="W2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:22">
+    <row r="3" spans="1:23">
       <c r="A3" s="1">
         <v>10</v>
       </c>
@@ -635,13 +644,16 @@
         <v>0.12</v>
       </c>
       <c r="U3">
-        <v>42.63600000000001</v>
+        <v>0.12</v>
       </c>
       <c r="V3">
-        <v>32.72500000000001</v>
+        <v>87.94500000000002</v>
+      </c>
+      <c r="W3">
+        <v>44.99000000000002</v>
       </c>
     </row>
-    <row r="4" spans="1:22">
+    <row r="4" spans="1:23">
       <c r="A4" s="1">
         <v>11</v>
       </c>
@@ -703,13 +715,16 @@
         <v>0.12</v>
       </c>
       <c r="U4">
-        <v>82.34752777777777</v>
+        <v>0.12</v>
       </c>
       <c r="V4">
-        <v>121.7590000000001</v>
+        <v>161.8688194444445</v>
+      </c>
+      <c r="W4">
+        <v>113.5164861111111</v>
       </c>
     </row>
-    <row r="5" spans="1:22">
+    <row r="5" spans="1:23">
       <c r="A5" s="1">
         <v>12</v>
       </c>
@@ -771,13 +786,16 @@
         <v>0.12</v>
       </c>
       <c r="U5">
-        <v>44.00000000000001</v>
+        <v>0.12</v>
       </c>
       <c r="V5">
-        <v>31.84148611111112</v>
+        <v>0</v>
+      </c>
+      <c r="W5">
+        <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22">
+    <row r="6" spans="1:23">
       <c r="A6" s="1">
         <v>13</v>
       </c>
@@ -839,13 +857,16 @@
         <v>0.12</v>
       </c>
       <c r="U6">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="V6">
-        <v>31.84148611111113</v>
+        <v>0</v>
+      </c>
+      <c r="W6">
+        <v>47.85000000000002</v>
       </c>
     </row>
-    <row r="7" spans="1:22">
+    <row r="7" spans="1:23">
       <c r="A7" s="1">
         <v>14</v>
       </c>
@@ -907,13 +928,16 @@
         <v>0.12</v>
       </c>
       <c r="U7">
-        <v>12.87</v>
+        <v>0.12</v>
       </c>
       <c r="V7">
-        <v>101.5839305555556</v>
+        <v>0</v>
+      </c>
+      <c r="W7">
+        <v>109.395</v>
       </c>
     </row>
-    <row r="8" spans="1:22">
+    <row r="8" spans="1:23">
       <c r="A8" s="1">
         <v>15</v>
       </c>
@@ -975,13 +999,16 @@
         <v>0.12</v>
       </c>
       <c r="U8">
-        <v>57.89361111111112</v>
+        <v>0.12</v>
       </c>
       <c r="V8">
-        <v>85.9005277777778</v>
+        <v>59.89148611111113</v>
+      </c>
+      <c r="W8">
+        <v>49.33500000000002</v>
       </c>
     </row>
-    <row r="9" spans="1:22">
+    <row r="9" spans="1:23">
       <c r="A9" s="1">
         <v>16</v>
       </c>
@@ -1043,13 +1070,16 @@
         <v>0.12</v>
       </c>
       <c r="U9">
-        <v>51.42500000000003</v>
+        <v>0.12</v>
       </c>
       <c r="V9">
+        <v>54.11648611111113</v>
+      </c>
+      <c r="W9">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:22">
+    <row r="10" spans="1:23">
       <c r="A10" s="1">
         <v>17</v>
       </c>
@@ -1111,13 +1141,16 @@
         <v>0.12</v>
       </c>
       <c r="U10">
-        <v>104.0004166666667</v>
+        <v>0.12</v>
       </c>
       <c r="V10">
         <v>0</v>
       </c>
+      <c r="W10">
+        <v>0</v>
+      </c>
     </row>
-    <row r="11" spans="1:22">
+    <row r="11" spans="1:23">
       <c r="A11" s="1">
         <v>18</v>
       </c>
@@ -1179,13 +1212,16 @@
         <v>0.12</v>
       </c>
       <c r="U11">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="V11">
+        <v>71.51084722222224</v>
+      </c>
+      <c r="W11">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:22">
+    <row r="12" spans="1:23">
       <c r="A12" s="1">
         <v>19</v>
       </c>
@@ -1247,13 +1283,16 @@
         <v>0.12</v>
       </c>
       <c r="U12">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="V12">
+        <v>30.25000000000002</v>
+      </c>
+      <c r="W12">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:22">
+    <row r="13" spans="1:23">
       <c r="A13" s="1">
         <v>20</v>
       </c>
@@ -1315,13 +1354,16 @@
         <v>0.12</v>
       </c>
       <c r="U13">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="V13">
         <v>0</v>
       </c>
+      <c r="W13">
+        <v>0</v>
+      </c>
     </row>
-    <row r="14" spans="1:22">
+    <row r="14" spans="1:23">
       <c r="A14" s="1">
         <v>21</v>
       </c>
@@ -1383,13 +1425,16 @@
         <v>0.12</v>
       </c>
       <c r="U14">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="V14">
         <v>0</v>
       </c>
+      <c r="W14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="15" spans="1:22">
+    <row r="15" spans="1:23">
       <c r="A15" s="1">
         <v>22</v>
       </c>
@@ -1451,13 +1496,16 @@
         <v>0.12</v>
       </c>
       <c r="U15">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="V15">
         <v>0</v>
       </c>
+      <c r="W15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="16" spans="1:22">
+    <row r="16" spans="1:23">
       <c r="A16" s="1">
         <v>23</v>
       </c>
@@ -1519,13 +1567,16 @@
         <v>0.12</v>
       </c>
       <c r="U16">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="V16">
         <v>0</v>
       </c>
+      <c r="W16">
+        <v>0</v>
+      </c>
     </row>
-    <row r="17" spans="1:22">
+    <row r="17" spans="1:23">
       <c r="A17" s="1">
         <v>24</v>
       </c>
@@ -1587,9 +1638,12 @@
         <v>0.12</v>
       </c>
       <c r="U17">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="V17">
+        <v>0</v>
+      </c>
+      <c r="W17">
         <v>0</v>
       </c>
     </row>

--- a/output/teste/df_split2.xlsx
+++ b/output/teste/df_split2.xlsx
@@ -513,37 +513,37 @@
     </row>
     <row r="2" spans="1:23">
       <c r="A2" s="1">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C2">
-        <v>340.6121553362682</v>
+        <v>95.10188558031456</v>
       </c>
       <c r="D2">
-        <v>0.02222224</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>0.02222224</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.04444448</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>510.9182330044023</v>
+        <v>142.6528283704718</v>
       </c>
       <c r="H2">
-        <v>0.38</v>
+        <v>0.34</v>
       </c>
       <c r="I2">
-        <v>0.47</v>
+        <v>0.5</v>
       </c>
       <c r="J2">
-        <v>0.18</v>
+        <v>0.11</v>
       </c>
       <c r="K2">
-        <v>0.39</v>
+        <v>0.34</v>
       </c>
       <c r="L2">
         <v>500</v>
@@ -576,7 +576,7 @@
         <v>0.12</v>
       </c>
       <c r="V2">
-        <v>0</v>
+        <v>48.4227638888889</v>
       </c>
       <c r="W2">
         <v>0</v>
@@ -584,37 +584,37 @@
     </row>
     <row r="3" spans="1:23">
       <c r="A3" s="1">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B3">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C3">
-        <v>428.3635523572899</v>
+        <v>100.6937895111742</v>
       </c>
       <c r="D3">
-        <v>0.08611118000000001</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>0.08611118000000001</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0.17222236</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>642.5453285359349</v>
+        <v>151.0406842667613</v>
       </c>
       <c r="H3">
-        <v>0.4</v>
+        <v>0.39</v>
       </c>
       <c r="I3">
         <v>0.45</v>
       </c>
       <c r="J3">
-        <v>0.12</v>
+        <v>0.14</v>
       </c>
       <c r="K3">
-        <v>0.4</v>
+        <v>0.34</v>
       </c>
       <c r="L3">
         <v>500</v>
@@ -647,45 +647,45 @@
         <v>0.12</v>
       </c>
       <c r="V3">
-        <v>87.94500000000002</v>
+        <v>107.8514861111111</v>
       </c>
       <c r="W3">
-        <v>44.99000000000002</v>
+        <v>16.21400000000001</v>
       </c>
     </row>
     <row r="4" spans="1:23">
       <c r="A4" s="1">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C4">
-        <v>498.7069374946091</v>
+        <v>122.9626083453766</v>
       </c>
       <c r="D4">
-        <v>0.10000008</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>0.10000008</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0.20000016</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>748.0604062419137</v>
+        <v>184.4439125180649</v>
       </c>
       <c r="H4">
-        <v>0.34</v>
+        <v>0.4</v>
       </c>
       <c r="I4">
-        <v>0.42</v>
+        <v>0.44</v>
       </c>
       <c r="J4">
-        <v>0.14</v>
+        <v>0.19</v>
       </c>
       <c r="K4">
-        <v>0.3</v>
+        <v>0.35</v>
       </c>
       <c r="L4">
         <v>500</v>
@@ -718,45 +718,45 @@
         <v>0.12</v>
       </c>
       <c r="V4">
-        <v>161.8688194444445</v>
+        <v>104.8002083333334</v>
       </c>
       <c r="W4">
-        <v>113.5164861111111</v>
+        <v>139.1058472222223</v>
       </c>
     </row>
     <row r="5" spans="1:23">
       <c r="A5" s="1">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B5">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C5">
-        <v>508.3495138842192</v>
+        <v>217.7285845022828</v>
       </c>
       <c r="D5">
-        <v>0.11944454</v>
+        <v>0.00555556</v>
       </c>
       <c r="E5">
-        <v>0.11944454</v>
+        <v>0.00555556</v>
       </c>
       <c r="F5">
-        <v>0.23888908</v>
+        <v>0.01111112</v>
       </c>
       <c r="G5">
-        <v>762.5242708263288</v>
+        <v>326.5928767534242</v>
       </c>
       <c r="H5">
-        <v>0.35</v>
+        <v>0.38</v>
       </c>
       <c r="I5">
-        <v>0.48</v>
+        <v>0.41</v>
       </c>
       <c r="J5">
-        <v>0.12</v>
+        <v>0.17</v>
       </c>
       <c r="K5">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
       <c r="L5">
         <v>500</v>
@@ -797,37 +797,37 @@
     </row>
     <row r="6" spans="1:23">
       <c r="A6" s="1">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C6">
-        <v>425.5577207029365</v>
+        <v>340.6121553362682</v>
       </c>
       <c r="D6">
-        <v>0.10277786</v>
+        <v>0.02222224</v>
       </c>
       <c r="E6">
-        <v>0.10277786</v>
+        <v>0.02222224</v>
       </c>
       <c r="F6">
-        <v>0.20555572</v>
+        <v>0.04444448</v>
       </c>
       <c r="G6">
-        <v>638.3365810544047</v>
+        <v>510.9182330044023</v>
       </c>
       <c r="H6">
-        <v>0.35</v>
+        <v>0.38</v>
       </c>
       <c r="I6">
-        <v>0.45</v>
+        <v>0.47</v>
       </c>
       <c r="J6">
-        <v>0.14</v>
+        <v>0.18</v>
       </c>
       <c r="K6">
-        <v>0.38</v>
+        <v>0.39</v>
       </c>
       <c r="L6">
         <v>500</v>
@@ -863,42 +863,42 @@
         <v>0</v>
       </c>
       <c r="W6">
-        <v>47.85000000000002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:23">
       <c r="A7" s="1">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C7">
-        <v>334.7633794933903</v>
+        <v>428.3635523572899</v>
       </c>
       <c r="D7">
-        <v>0.0416667</v>
+        <v>0.08611118000000001</v>
       </c>
       <c r="E7">
-        <v>0.0416667</v>
+        <v>0.08611118000000001</v>
       </c>
       <c r="F7">
-        <v>0.0833334</v>
+        <v>0.17222236</v>
       </c>
       <c r="G7">
-        <v>502.1450692400854</v>
+        <v>642.5453285359349</v>
       </c>
       <c r="H7">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="I7">
-        <v>0.4</v>
+        <v>0.45</v>
       </c>
       <c r="J7">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="K7">
-        <v>0.37</v>
+        <v>0.4</v>
       </c>
       <c r="L7">
         <v>500</v>
@@ -931,45 +931,45 @@
         <v>0.12</v>
       </c>
       <c r="V7">
-        <v>0</v>
+        <v>87.94500000000002</v>
       </c>
       <c r="W7">
-        <v>109.395</v>
+        <v>44.99000000000002</v>
       </c>
     </row>
     <row r="8" spans="1:23">
       <c r="A8" s="1">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B8">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C8">
-        <v>286.7480913238156</v>
+        <v>498.7069374946091</v>
       </c>
       <c r="D8">
-        <v>0.0138889</v>
+        <v>0.10000008</v>
       </c>
       <c r="E8">
-        <v>0.0138889</v>
+        <v>0.10000008</v>
       </c>
       <c r="F8">
-        <v>0.0277778</v>
+        <v>0.20000016</v>
       </c>
       <c r="G8">
-        <v>430.1221369857234</v>
+        <v>748.0604062419137</v>
       </c>
       <c r="H8">
-        <v>0.33</v>
+        <v>0.34</v>
       </c>
       <c r="I8">
-        <v>0.49</v>
+        <v>0.42</v>
       </c>
       <c r="J8">
-        <v>0.12</v>
+        <v>0.14</v>
       </c>
       <c r="K8">
-        <v>0.36</v>
+        <v>0.3</v>
       </c>
       <c r="L8">
         <v>500</v>
@@ -1002,45 +1002,45 @@
         <v>0.12</v>
       </c>
       <c r="V8">
-        <v>59.89148611111113</v>
+        <v>161.8688194444445</v>
       </c>
       <c r="W8">
-        <v>49.33500000000002</v>
+        <v>113.5164861111111</v>
       </c>
     </row>
     <row r="9" spans="1:23">
       <c r="A9" s="1">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B9">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C9">
-        <v>262.4045378156197</v>
+        <v>508.3495138842192</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>0.11944454</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>0.11944454</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>0.23888908</v>
       </c>
       <c r="G9">
-        <v>393.6068067234295</v>
+        <v>762.5242708263288</v>
       </c>
       <c r="H9">
-        <v>0.39</v>
+        <v>0.35</v>
       </c>
       <c r="I9">
-        <v>0.46</v>
+        <v>0.48</v>
       </c>
       <c r="J9">
-        <v>0.14</v>
+        <v>0.12</v>
       </c>
       <c r="K9">
-        <v>0.39</v>
+        <v>0.36</v>
       </c>
       <c r="L9">
         <v>500</v>
@@ -1073,7 +1073,7 @@
         <v>0.12</v>
       </c>
       <c r="V9">
-        <v>54.11648611111113</v>
+        <v>0</v>
       </c>
       <c r="W9">
         <v>0</v>
@@ -1081,37 +1081,37 @@
     </row>
     <row r="10" spans="1:23">
       <c r="A10" s="1">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B10">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C10">
-        <v>309.1354664251031</v>
+        <v>425.5577207029365</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>0.10277786</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>0.10277786</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>0.20555572</v>
       </c>
       <c r="G10">
-        <v>463.7031996376547</v>
+        <v>638.3365810544047</v>
       </c>
       <c r="H10">
-        <v>0.37</v>
+        <v>0.35</v>
       </c>
       <c r="I10">
-        <v>0.48</v>
+        <v>0.45</v>
       </c>
       <c r="J10">
-        <v>0.19</v>
+        <v>0.14</v>
       </c>
       <c r="K10">
-        <v>0.34</v>
+        <v>0.38</v>
       </c>
       <c r="L10">
         <v>500</v>
@@ -1147,42 +1147,42 @@
         <v>0</v>
       </c>
       <c r="W10">
-        <v>0</v>
+        <v>47.85000000000002</v>
       </c>
     </row>
     <row r="11" spans="1:23">
       <c r="A11" s="1">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B11">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C11">
-        <v>384.636049180636</v>
+        <v>334.7633794933903</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>0.0416667</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>0.0416667</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>0.0833334</v>
       </c>
       <c r="G11">
-        <v>576.954073770954</v>
+        <v>502.1450692400854</v>
       </c>
       <c r="H11">
-        <v>0.35</v>
+        <v>0.3</v>
       </c>
       <c r="I11">
         <v>0.4</v>
       </c>
       <c r="J11">
-        <v>0.18</v>
+        <v>0.11</v>
       </c>
       <c r="K11">
-        <v>0.39</v>
+        <v>0.37</v>
       </c>
       <c r="L11">
         <v>500</v>
@@ -1215,45 +1215,45 @@
         <v>0.12</v>
       </c>
       <c r="V11">
-        <v>71.51084722222224</v>
+        <v>0</v>
       </c>
       <c r="W11">
-        <v>0</v>
+        <v>109.395</v>
       </c>
     </row>
     <row r="12" spans="1:23">
       <c r="A12" s="1">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B12">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C12">
-        <v>433.5207499755035</v>
+        <v>286.7480913238156</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>0.0138889</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>0.0138889</v>
       </c>
       <c r="F12">
-        <v>0</v>
+        <v>0.0277778</v>
       </c>
       <c r="G12">
-        <v>650.2811249632553</v>
+        <v>430.1221369857234</v>
       </c>
       <c r="H12">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
       <c r="I12">
-        <v>0.41</v>
+        <v>0.49</v>
       </c>
       <c r="J12">
-        <v>0.17</v>
+        <v>0.12</v>
       </c>
       <c r="K12">
-        <v>0.33</v>
+        <v>0.36</v>
       </c>
       <c r="L12">
         <v>500</v>
@@ -1286,21 +1286,21 @@
         <v>0.12</v>
       </c>
       <c r="V12">
-        <v>30.25000000000002</v>
+        <v>59.89148611111113</v>
       </c>
       <c r="W12">
-        <v>0</v>
+        <v>49.33500000000002</v>
       </c>
     </row>
     <row r="13" spans="1:23">
       <c r="A13" s="1">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B13">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C13">
-        <v>393.8044005019047</v>
+        <v>262.4045378156197</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -1312,19 +1312,19 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>590.7066007528571</v>
+        <v>393.6068067234295</v>
       </c>
       <c r="H13">
-        <v>0.35</v>
+        <v>0.39</v>
       </c>
       <c r="I13">
-        <v>0.49</v>
+        <v>0.46</v>
       </c>
       <c r="J13">
-        <v>0.16</v>
+        <v>0.14</v>
       </c>
       <c r="K13">
-        <v>0.37</v>
+        <v>0.39</v>
       </c>
       <c r="L13">
         <v>500</v>
@@ -1357,7 +1357,7 @@
         <v>0.12</v>
       </c>
       <c r="V13">
-        <v>0</v>
+        <v>54.11648611111113</v>
       </c>
       <c r="W13">
         <v>0</v>
@@ -1365,13 +1365,13 @@
     </row>
     <row r="14" spans="1:23">
       <c r="A14" s="1">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B14">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C14">
-        <v>333.3011855326704</v>
+        <v>309.1354664251031</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -1383,13 +1383,13 @@
         <v>0</v>
       </c>
       <c r="G14">
-        <v>499.9517782990056</v>
+        <v>463.7031996376547</v>
       </c>
       <c r="H14">
-        <v>0.3</v>
+        <v>0.37</v>
       </c>
       <c r="I14">
-        <v>0.4</v>
+        <v>0.48</v>
       </c>
       <c r="J14">
         <v>0.19</v>
@@ -1436,13 +1436,13 @@
     </row>
     <row r="15" spans="1:23">
       <c r="A15" s="1">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B15">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C15">
-        <v>282.2034344188766</v>
+        <v>384.636049180636</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -1454,19 +1454,19 @@
         <v>0</v>
       </c>
       <c r="G15">
-        <v>423.3051516283149</v>
+        <v>576.954073770954</v>
       </c>
       <c r="H15">
+        <v>0.35</v>
+      </c>
+      <c r="I15">
+        <v>0.4</v>
+      </c>
+      <c r="J15">
+        <v>0.18</v>
+      </c>
+      <c r="K15">
         <v>0.39</v>
-      </c>
-      <c r="I15">
-        <v>0.41</v>
-      </c>
-      <c r="J15">
-        <v>0.14</v>
-      </c>
-      <c r="K15">
-        <v>0.3</v>
       </c>
       <c r="L15">
         <v>500</v>
@@ -1499,7 +1499,7 @@
         <v>0.12</v>
       </c>
       <c r="V15">
-        <v>0</v>
+        <v>71.51084722222224</v>
       </c>
       <c r="W15">
         <v>0</v>
@@ -1507,13 +1507,13 @@
     </row>
     <row r="16" spans="1:23">
       <c r="A16" s="1">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B16">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C16">
-        <v>208.1255268683671</v>
+        <v>433.5207499755035</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -1525,19 +1525,19 @@
         <v>0</v>
       </c>
       <c r="G16">
-        <v>312.1882903025506</v>
+        <v>650.2811249632553</v>
       </c>
       <c r="H16">
-        <v>0.32</v>
+        <v>0.38</v>
       </c>
       <c r="I16">
-        <v>0.45</v>
+        <v>0.41</v>
       </c>
       <c r="J16">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="K16">
-        <v>0.39</v>
+        <v>0.33</v>
       </c>
       <c r="L16">
         <v>500</v>
@@ -1570,7 +1570,7 @@
         <v>0.12</v>
       </c>
       <c r="V16">
-        <v>0</v>
+        <v>30.25000000000002</v>
       </c>
       <c r="W16">
         <v>0</v>
@@ -1578,13 +1578,13 @@
     </row>
     <row r="17" spans="1:23">
       <c r="A17" s="1">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B17">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C17">
-        <v>165.1488800499209</v>
+        <v>393.8044005019047</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -1596,19 +1596,19 @@
         <v>0</v>
       </c>
       <c r="G17">
-        <v>247.7233200748814</v>
+        <v>590.7066007528571</v>
       </c>
       <c r="H17">
-        <v>0.4</v>
+        <v>0.35</v>
       </c>
       <c r="I17">
-        <v>0.48</v>
+        <v>0.49</v>
       </c>
       <c r="J17">
-        <v>0.2</v>
+        <v>0.16</v>
       </c>
       <c r="K17">
-        <v>0.4</v>
+        <v>0.37</v>
       </c>
       <c r="L17">
         <v>500</v>
